--- a/data/summary_22071311.xlsx
+++ b/data/summary_22071311.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,1014 +406,1134 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>24.53646408839779</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>990.0104972375691</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.4065545454545455</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.3812702479338843</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.585776894997197</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-3.844016502005994e-017</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>22.82651933701657</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.129834254143646</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>23.53812154696133</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>989.9878453038674</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.468999173553719</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.473104132231405</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.882692177010501</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>9.881087069737134e-005</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>22.40552486187845</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>23.3475138121547</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>989.9911602209945</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.5017892561983471</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.5302867768595041</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3.028783752024089</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3.76808279081744e-005</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>22.37845303867403</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3.64585635359116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>22.96574585635359</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>990.0314917127072</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.3879297520661157</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.4232462809917356</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.238505680310599</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.0001360566244480412</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>22.08121546961326</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>22.89944751381215</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>990.0480662983425</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.3297909090909091</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.3280603305785124</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.022362970606786</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.0001405506438415988</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>21.9</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.00276243093922652</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>22.86826923076923</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>990.1711538461539</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.3014159090909091</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.2394204545454546</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.251599703898617</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.0001007442206149636</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>21.9</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4.938461538461539</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>22.94861878453039</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>990.2055248618785</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.3476388429752066</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.3356710743801653</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.16680201240167</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-3.865394702904411e-017</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>21.9</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4.866298342541437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>22.82542372881356</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>990.1881355932204</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-7.921220501384298e-018</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>21.9</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.38135593220339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>22.7889502762431</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>990.1994475138122</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.3357925619834711</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.3464132231404959</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.023427801031316</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-3.867456787361681e-017</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>21.9</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2.466850828729282</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>22.72651933701658</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>990.1574585635359</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.3540644628099174</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.3315512396694215</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2.312879025162641</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-3.868108925535383e-017</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>21.9</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4.191160220994475</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>22.77016574585635</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>990.1419889502763</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.3994743801652892</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.3837851239669421</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.529298610801006</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.0001366504773434446</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>21.89779005524862</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3.246408839779006</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>22.83038674033149</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>990.0790055248619</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.3840462809917355</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.3744082644628099</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2.384130138839199</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.0001087196202221268</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>21.8767955801105</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2.581767955801105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>23.07348066298343</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>990.0828729281768</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.2137438016528926</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.2071851239669421</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.299371962609028</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-2.674583001475427e-017</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>21.9</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.8033149171270718</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>23.16961325966851</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>990.1082872928178</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.3712157024793388</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.3697735537190083</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.309304083446701</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.0001204974674448102</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>22.08232044198895</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>23.93591160220995</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>990</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.408299173553719</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.4105504132231405</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.519007509350818</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.0001270391082670853</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>22.20110497237569</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>24.98397790055249</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>989.9038674033149</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.5937520661157025</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.4748545454545455</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>4.015846298570842</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.0002283786187756748</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>22.60552486187845</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.771270718232044</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>25.26243093922652</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>989.8972375690607</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.4346413223140496</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.4437090909090909</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2.650832161057872</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.0001090133742372388</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>22.93480662983426</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.993370165745856</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>26.51049723756906</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>990.0055248618785</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.5023702479338843</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.5660107438016528</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2.854134986520947</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.0001262790515295165</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>23.58950276243094</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2.99171270718232</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>26.39723756906077</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>989.9602209944751</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.3482487603305785</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.347203305785124</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2.141313019254096</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-2.938415432997714e-018</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>23.79613259668508</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.1845303867403315</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>26.1</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>989.93</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-1.175783169485677e-016</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>23.9</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>26.43370165745856</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>989.8502762430938</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.3961619834710744</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.3627619834710744</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2.568977366601462</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.0001388618992543705</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>23.94972375690607</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.2922651933701657</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>26.01</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>990.4666666666667</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>2.143761185053378e-017</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>24.98666666666667</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>4.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>25.90165745856353</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>990.4558011049724</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.3832099173553719</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.375597520661157</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2.360530761819216</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-2.944759053076204e-018</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>24.9</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>4.449171270718232</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>25.59171270718232</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>990.4077348066298</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.5268148760330579</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.5086421487603305</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>3.365294527445712</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-1.326452241235206e-017</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>24.5060773480663</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>6.26353591160221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>25.4817679558011</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>990.3430939226519</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.5383338842975207</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.5276206611570248</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>3.437938109550775</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.0001048700422960327</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>24.20331491712707</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>6.122099447513812</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>25.14696132596685</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>990.3071823204419</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.4193710743801653</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.4116066115702479</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2.5812554739212</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-2.804179109156575e-017</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>23.9</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>7.041988950276243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>24.97900552486188</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>990.2121546961326</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.3717099173553719</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.3777644628099174</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2.22378721046246</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>4.273465530877181e-005</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>23.9</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.716574585635359</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>24.98729281767956</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>990.1270718232045</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.3121520661157025</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.2529206611570248</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2.151807381131947</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.0001162776474610769</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>23.9</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>24.88232044198895</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>990.1149171270719</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.5511214876033058</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.5245239669421488</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>3.515814097882407</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.0001281163061079131</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>23.9</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.653038674033149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>25.10552486187845</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>990.0480662983425</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.380593388429752</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.3958818181818182</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2.294167805950899</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>5.279496340738991e-005</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>23.89337016574585</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>26.31602209944752</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>990.0397790055249</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.5350115702479339</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.4897719008264463</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>3.355903665412116</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.0001900445445292321</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>24.14972375690608</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1.488397790055249</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>27.29502762430939</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>989.9491712707182</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.6174338842975207</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.6129644628099173</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>3.842797176867021</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.0001389206525817595</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>24.9</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>6.51767955801105</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>26.82265193370166</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>989.8187845303867</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.5893818181818182</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.5573239669421488</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>3.777078993510092</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>7.512288850918759e-005</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>24.76740331491713</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>6.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>27.09447513812155</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>989.7464088397791</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.7567247933884298</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.7122561983471074</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>4.912515947582441</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.0001790155642505615</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>24.82596685082873</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>5.95524861878453</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>27.57182320441989</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>989.6243093922652</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.6205892561983472</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.5861471074380166</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>3.909072511917828</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.0001258100386349902</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>24.97734806629834</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>4.629281767955801</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>27.57734806629835</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>989.6022099447514</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.3705231404958678</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.3501809917355372</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>2.345348020461754</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>9.382451774586261e-005</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>25.24419889502762</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>2.509944751381215</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>27.26906077348066</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>989.5093922651934</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.4534148760330579</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.4398867768595041</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2.845497932816737</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1.171421012641035e-017</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>25.4</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>3.438121546961326</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>27.29337016574586</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>989.6961325966852</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.276600826446281</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.2582413223140496</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1.77862783931106</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4.994076117050442e-005</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>25.36353591160221</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>1.899447513812155</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>27.02265193370166</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>989.7066298342542</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.3544338842975207</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.3451512396694215</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>2.278722078074273</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>-2.931541136306013e-018</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>25.18784530386741</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>4.428176795580111</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>26.39834254143646</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>989.6165745856354</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.3691404958677686</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.3876123966942149</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>2.211913861968776</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>-2.937384579267685e-018</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>24.91657458563536</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>3.998895027624309</v>
       </c>
     </row>
